--- a/xlsx/new-zealand-standard-classification-of-education-nzsced-field-of-study.xlsx
+++ b/xlsx/new-zealand-standard-classification-of-education-nzsced-field-of-study.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="1595">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -4722,6 +4722,81 @@
   </si>
   <si>
     <t xml:space="preserve">Mixed Field Programmes/Other Mixed Field Programmes/Mixed Field Programmes not elsewhere classified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't Know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't Know/Don't Know/Don't Know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refused to Answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refused to Answer/Refused to Answer/Refused to Answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">777777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response Unidentifiable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response Unidentifiable/Response Unidentifiable/Response Unidentifiable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">888888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response Outside Scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response Outside Scope/Response Outside Scope/Response Outside Scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Stated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Stated/Not Stated/Not Stated</t>
   </si>
 </sst>
 </file>
@@ -15702,6 +15777,121 @@
         <v>1569</v>
       </c>
     </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E464" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F464" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G464" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E465" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F465" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G465" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E466" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F466" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G466" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E467" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F467" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G467" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E468" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F468" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G468" t="s">
+        <v>1594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/xlsx/new-zealand-standard-classification-of-education-nzsced-field-of-study.xlsx
+++ b/xlsx/new-zealand-standard-classification-of-education-nzsced-field-of-study.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">Definition</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0.0</t>
+    <t xml:space="preserve">NZSCED 2.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">000000</t>

--- a/xlsx/new-zealand-standard-classification-of-education-nzsced-field-of-study.xlsx
+++ b/xlsx/new-zealand-standard-classification-of-education-nzsced-field-of-study.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">Definition</t>
   </si>
   <si>
-    <t xml:space="preserve">NZSCED 2.0.0</t>
+    <t xml:space="preserve">NZSCED.FIELD 2.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">000000</t>

--- a/xlsx/new-zealand-standard-classification-of-education-nzsced-field-of-study.xlsx
+++ b/xlsx/new-zealand-standard-classification-of-education-nzsced-field-of-study.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">Definition</t>
   </si>
   <si>
-    <t xml:space="preserve">NZSCED.FIELD 2.0.0</t>
+    <t xml:space="preserve">NZSCEDFIELD 2.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">000000</t>
